--- a/0_docs/CheckListForm_5week.xlsx
+++ b/0_docs/CheckListForm_5week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOJINYOU\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\0_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11240B96-C051-4E93-AA49-317848D04B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EADBD7-727C-4F24-B721-0E9567FDE175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="48">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실버2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +735,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -757,61 +759,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1128,7 @@
   <dimension ref="B1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:F138"/>
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1147,11 +1143,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1167,10 +1163,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,10 +1176,10 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1195,89 +1191,89 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="34"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="34"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="35"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
@@ -1287,10 +1283,10 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1300,10 +1296,10 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1315,99 +1311,99 @@
       </c>
     </row>
     <row r="18" spans="2:22" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="V20" s="14">
         <v>44267</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B21" s="34"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="35"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B25" s="34"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="35"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:22" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1417,10 +1413,10 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="10" t="s">
         <v>23</v>
       </c>
@@ -1432,96 +1428,96 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="30"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B32" s="34"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="34"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="34"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="35"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="34"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="35"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,10 +1527,10 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="26"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="10" t="s">
         <v>25</v>
       </c>
@@ -1546,96 +1542,96 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="37"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="37"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="37"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="38"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="34"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="35"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1645,10 +1641,10 @@
       <c r="F52" s="14"/>
     </row>
     <row r="53" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="10" t="s">
         <v>27</v>
       </c>
@@ -1660,96 +1656,96 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="30"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="34"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="34"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="34"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="35"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="34"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="35"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="32"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
@@ -1759,10 +1755,10 @@
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="10" t="s">
         <v>29</v>
       </c>
@@ -1774,96 +1770,96 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="30"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="34"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="34"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="34"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="35"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="34"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="35"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="1" t="s">
         <v>32</v>
       </c>
@@ -1873,10 +1869,10 @@
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="10" t="s">
         <v>31</v>
       </c>
@@ -1888,96 +1884,96 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="30"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="36"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="11"/>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="34"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="34"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B82" s="34"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="35"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="34"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="35"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
     </row>
     <row r="87" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="1" t="s">
         <v>34</v>
       </c>
@@ -1987,10 +1983,10 @@
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="26"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="10" t="s">
         <v>33</v>
       </c>
@@ -2002,98 +1998,98 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="30"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="36"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="11"/>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="34"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="34"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="34"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="35"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="26"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="34"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="35"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="32"/>
+      <c r="C100" s="28"/>
       <c r="D100" s="1" t="s">
         <v>36</v>
       </c>
@@ -2103,10 +2099,10 @@
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="26"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="10" t="s">
         <v>35</v>
       </c>
@@ -2118,98 +2114,98 @@
       </c>
     </row>
     <row r="102" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="30"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="36"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="11"/>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B104" s="34"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B105" s="34"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B106" s="34"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="35"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="28"/>
-      <c r="F107" s="29"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B109" s="34"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="35"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="28"/>
-      <c r="F110" s="29"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="26"/>
     </row>
     <row r="111" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="32"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="1" t="s">
         <v>38</v>
       </c>
@@ -2219,10 +2215,10 @@
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="26"/>
+      <c r="C113" s="33"/>
       <c r="D113" s="10" t="s">
         <v>37</v>
       </c>
@@ -2234,98 +2230,98 @@
       </c>
     </row>
     <row r="114" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="30"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="36"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="11"/>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="18"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B116" s="34"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="20"/>
-      <c r="F116" s="21"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="23"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B117" s="34"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B118" s="34"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="35"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="29"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="26"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="16" t="s">
+      <c r="D120" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="17"/>
-      <c r="F120" s="18"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B121" s="34"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="20"/>
-      <c r="F121" s="21"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="23"/>
     </row>
     <row r="122" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="35"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="32"/>
+      <c r="C124" s="28"/>
       <c r="D124" s="1" t="s">
         <v>40</v>
       </c>
@@ -2335,10 +2331,10 @@
       <c r="F124" s="14"/>
     </row>
     <row r="125" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="26"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="10" t="s">
         <v>39</v>
       </c>
@@ -2350,113 +2346,111 @@
       </c>
     </row>
     <row r="126" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="30"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="17"/>
-      <c r="F127" s="18"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B128" s="34"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="21"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="23"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B129" s="34"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="21"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="23"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B130" s="34"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="21"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="23"/>
     </row>
     <row r="131" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="35"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="26"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="18"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B133" s="34"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="12"/>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="21"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="23"/>
     </row>
     <row r="134" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="35"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="28"/>
-      <c r="F134" s="29"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="26"/>
     </row>
     <row r="135" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="136" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="32"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F136" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="26"/>
+      <c r="C137" s="33"/>
       <c r="D137" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>4</v>
@@ -2466,102 +2460,102 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="30"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="17"/>
-      <c r="F139" s="18"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B140" s="34"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="20"/>
-      <c r="F140" s="21"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="23"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B141" s="34"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="20"/>
-      <c r="F141" s="21"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B142" s="34"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="19" t="s">
+      <c r="D142" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E142" s="20"/>
-      <c r="F142" s="21"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="23"/>
     </row>
     <row r="143" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B143" s="35"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="29"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="26"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="16" t="s">
+      <c r="D144" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="18"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20"/>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B145" s="34"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="20"/>
-      <c r="F145" s="21"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="23"/>
     </row>
     <row r="146" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="35"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="27" t="s">
+      <c r="D146" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E146" s="28"/>
-      <c r="F146" s="29"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="26"/>
     </row>
     <row r="147" spans="2:22" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="32"/>
+      <c r="C148" s="28"/>
       <c r="D148" s="1" t="s">
         <v>41</v>
       </c>
@@ -2571,10 +2565,10 @@
       <c r="F148" s="14"/>
     </row>
     <row r="149" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B149" s="25" t="s">
+      <c r="B149" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="26"/>
+      <c r="C149" s="33"/>
       <c r="D149" s="10" t="s">
         <v>42</v>
       </c>
@@ -2586,114 +2580,112 @@
       </c>
     </row>
     <row r="150" spans="2:22" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="30"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="36"/>
     </row>
     <row r="151" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20"/>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B152" s="34"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="20"/>
-      <c r="F152" s="21"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="23"/>
       <c r="V152" s="14">
         <v>44267</v>
       </c>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B153" s="34"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="20"/>
-      <c r="F153" s="21"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="23"/>
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B154" s="34"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="20"/>
-      <c r="F154" s="21"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="23"/>
     </row>
     <row r="155" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="35"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="26"/>
     </row>
     <row r="156" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
     </row>
     <row r="157" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B157" s="34"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="20"/>
-      <c r="F157" s="21"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="23"/>
     </row>
     <row r="158" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="35"/>
+      <c r="B158" s="31"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="27" t="s">
+      <c r="D158" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E158" s="28"/>
-      <c r="F158" s="29"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="26"/>
     </row>
     <row r="159" spans="2:22" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="160" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="32"/>
+      <c r="C160" s="28"/>
       <c r="D160" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F160" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="26"/>
+      <c r="C161" s="33"/>
       <c r="D161" s="10" t="s">
         <v>44</v>
       </c>
@@ -2705,207 +2697,136 @@
       </c>
     </row>
     <row r="162" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="30"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="36"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="17"/>
-      <c r="F163" s="18"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="20"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B164" s="34"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="20"/>
-      <c r="F164" s="21"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="23"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B165" s="34"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="20"/>
-      <c r="F165" s="21"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B166" s="34"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="21"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="23"/>
     </row>
     <row r="167" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B167" s="35"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="28"/>
-      <c r="F167" s="29"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="26"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="16" t="s">
+      <c r="D168" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="17"/>
-      <c r="F168" s="18"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="20"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B169" s="34"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="20"/>
-      <c r="F169" s="21"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="23"/>
     </row>
     <row r="170" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B170" s="35"/>
+      <c r="B170" s="31"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="28"/>
-      <c r="F170" s="29"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D43:F43"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
@@ -2930,50 +2851,121 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:B143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
